--- a/results/accel-glmm-results/habitat-season/np/glmm_multi_comp_hab_season_np.xlsx
+++ b/results/accel-glmm-results/habitat-season/np/glmm_multi_comp_hab_season_np.xlsx
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.848314727028141</v>
+        <v>0.97048174177063</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0115000067872683</v>
+        <v>0.0297675572818717</v>
       </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-12.1348452299536</v>
+        <v>-0.97684345007486</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000000000000000000000000000000131176791603202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.774767002726108</v>
+        <v>0.945901641096339</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0106108209812903</v>
+        <v>0.0282594869943934</v>
       </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-18.6333429673044</v>
+        <v>-1.86160198963625</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000327581697023724</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.25705282878069</v>
+        <v>1.09530789052181</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0112535933204657</v>
+        <v>0.0286512840767179</v>
       </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>25.5541419204163</v>
+        <v>3.48018970891853</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000938306365058094</v>
+        <v>0.0856810635362038</v>
       </c>
     </row>
     <row r="5">
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.913301370400949</v>
+        <v>0.974672268816263</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0145895419539637</v>
+        <v>0.0283478079812695</v>
       </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
@@ -593,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>-5.67712964578065</v>
+        <v>-0.882052025422957</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00000260249956117856</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.674844133520616</v>
+        <v>0.886035561478777</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00804835556410868</v>
+        <v>0.025523934113473</v>
       </c>
       <c r="I6" t="e">
         <v>#NUM!</v>
@@ -631,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>-32.9754732103585</v>
+        <v>-4.20032039633699</v>
       </c>
       <c r="L6" t="n">
-        <v>3.46847965491937e-236</v>
+        <v>0.00455779178833037</v>
       </c>
     </row>
     <row r="7">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.61633607195142</v>
+        <v>0.863594290958412</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00754374442901834</v>
+        <v>0.0254622278361198</v>
       </c>
       <c r="I7" t="e">
         <v>#NUM!</v>
@@ -669,10 +669,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>-39.5405479556853</v>
+        <v>-4.97395576754085</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.000112176484547854</v>
       </c>
     </row>
     <row r="8">
@@ -694,24 +694,14 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.746778345461754</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.091880363591571</v>
-      </c>
-      <c r="I8" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
       <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>-2.3731889905365</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
+      <c r="K8"/>
+      <c r="L8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -733,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.661785360176928</v>
+        <v>0.708533717164237</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0262240421018702</v>
+        <v>0.0301589457041923</v>
       </c>
       <c r="I9" t="e">
         <v>#NUM!</v>
@@ -745,10 +735,10 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>-10.4177023472009</v>
+        <v>-8.09480217921084</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0000000000000000000000391146223122631</v>
+        <v>0.0000000000000980813031389608</v>
       </c>
     </row>
     <row r="10">
@@ -771,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.553441501116093</v>
+        <v>0.559242248855265</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0329032646216715</v>
+        <v>0.0380008522486918</v>
       </c>
       <c r="I10" t="e">
         <v>#NUM!</v>
@@ -783,10 +773,10 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>-9.95085335599062</v>
+        <v>-8.55286706026128</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00000000000000000000475056802320793</v>
+        <v>0.0000000000000020531654836327</v>
       </c>
     </row>
     <row r="11">
@@ -809,10 +799,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.86208069499762</v>
+        <v>0.948637861179539</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0405716090513906</v>
+        <v>0.0520656280601051</v>
       </c>
       <c r="I11" t="e">
         <v>#NUM!</v>
@@ -821,10 +811,10 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>-3.15339456814941</v>
+        <v>-0.960709104254518</v>
       </c>
       <c r="L11" t="n">
-        <v>0.306628673805912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -847,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.78011773118136</v>
+        <v>0.730084541180061</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0315549582079167</v>
+        <v>0.0244067185408816</v>
       </c>
       <c r="I12" t="e">
         <v>#NUM!</v>
@@ -859,10 +849,10 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>-6.13885686553216</v>
+        <v>-9.41056059178078</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000000157923088242187</v>
+        <v>0.000000000000000000843881150485795</v>
       </c>
     </row>
     <row r="13">
@@ -885,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.65240114721919</v>
+        <v>0.576252210407314</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0391738049368893</v>
+        <v>0.038986760037462</v>
       </c>
       <c r="I13" t="e">
         <v>#NUM!</v>
@@ -897,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>-7.11285749075785</v>
+        <v>-8.14727598502205</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000000000215962798321856</v>
+        <v>0.0000000000000636485153424901</v>
       </c>
     </row>
     <row r="14">
@@ -923,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.714332824150673</v>
+        <v>0.591226639809061</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0429346630062701</v>
+        <v>0.0375527687826788</v>
       </c>
       <c r="I14" t="e">
         <v>#NUM!</v>
@@ -935,10 +925,10 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>-5.59701729999299</v>
+        <v>-8.27429319269148</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0000041433481325767</v>
+        <v>0.0000000000000220965926269271</v>
       </c>
     </row>
     <row r="15">
@@ -961,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.526457874343154</v>
+        <v>0.646880866371451</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0206007876419321</v>
+        <v>0.0266204806702174</v>
       </c>
       <c r="I15" t="e">
         <v>#NUM!</v>
@@ -973,10 +963,10 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>-16.3958259449873</v>
+        <v>-10.5849652850965</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000389191441765337</v>
+        <v>0.0000000000000000000000059834684147781</v>
       </c>
     </row>
     <row r="16">
@@ -999,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.44026908690299</v>
+        <v>0.510579950801631</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0260287255533946</v>
+        <v>0.0346119974837813</v>
       </c>
       <c r="I16" t="e">
         <v>#NUM!</v>
@@ -1011,10 +1001,10 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>-13.8763301382623</v>
+        <v>-9.91609769456684</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0000000000000000000000000000000000000000167471053014442</v>
+        <v>0.00000000000000000000605921023007556</v>
       </c>
     </row>
     <row r="17">
@@ -1037,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.685795119552628</v>
+        <v>0.866092419664393</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0320108221854599</v>
+        <v>0.0421916589289775</v>
       </c>
       <c r="I17" t="e">
         <v>#NUM!</v>
@@ -1049,10 +1039,10 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>-8.08057044742393</v>
+        <v>-2.95111915008294</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000000000000122482558146976</v>
+        <v>0.541428323110513</v>
       </c>
     </row>
     <row r="18">
@@ -1075,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.08992124121596</v>
+        <v>1.01925648300427</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0185192625390263</v>
+        <v>0.0182424435394597</v>
       </c>
       <c r="I18" t="e">
         <v>#NUM!</v>
@@ -1087,10 +1077,10 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>5.06759626717462</v>
+        <v>1.06568565056608</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0000765454458198395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1113,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.812267553925586</v>
+        <v>0.957353574024498</v>
       </c>
       <c r="H19" t="n">
-        <v>0.015805201020402</v>
+        <v>0.0328871822946364</v>
       </c>
       <c r="I19" t="e">
         <v>#NUM!</v>
@@ -1125,10 +1115,10 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>-10.6857946020657</v>
+        <v>-1.26869662791563</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00000000000000000000000225394693342258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1151,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.912840123456965</v>
+        <v>0.862346044930917</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0165822586530134</v>
+        <v>0.0288032001765465</v>
       </c>
       <c r="I20" t="e">
         <v>#NUM!</v>
@@ -1163,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>-5.02018591958967</v>
+        <v>-4.43396149324805</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0000980808340195671</v>
+        <v>0.00158204339502472</v>
       </c>
     </row>
     <row r="21">
@@ -1189,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.25024742058726</v>
+        <v>1.06579243246729</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0167086441210528</v>
+        <v>0.0297703440546741</v>
       </c>
       <c r="I21" t="e">
         <v>#NUM!</v>
@@ -1201,10 +1191,10 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>16.7118344553079</v>
+        <v>2.2811557523042</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000204207547906502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1227,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.957507311904348</v>
+        <v>0.986472524746134</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0202384847680549</v>
+        <v>0.0235860033294222</v>
       </c>
       <c r="I22" t="e">
         <v>#NUM!</v>
@@ -1239,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>-2.05434388060303</v>
+        <v>-0.56964138384028</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -1265,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.07606303930956</v>
+        <v>0.888575238270407</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0215669369256524</v>
+        <v>0.028829121332983</v>
       </c>
       <c r="I23" t="e">
         <v>#NUM!</v>
@@ -1277,10 +1267,10 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>3.65768935655706</v>
+        <v>-3.64120304032843</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0483548538019813</v>
+        <v>0.0464037590112924</v>
       </c>
     </row>
     <row r="24">
@@ -1303,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.17821244354113</v>
+        <v>0.911665661063261</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0231953541849476</v>
+        <v>0.021399109612327</v>
       </c>
       <c r="I24" t="e">
         <v>#NUM!</v>
@@ -1315,10 +1305,10 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>8.33033061922505</v>
+        <v>-3.94000614645056</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0000000000000153172107502987</v>
+        <v>0.0139329981753163</v>
       </c>
     </row>
     <row r="25">
@@ -1341,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.646168192241744</v>
+        <v>0.874049737346828</v>
       </c>
       <c r="H25" t="n">
-        <v>0.011853896939417</v>
+        <v>0.0286812257613855</v>
       </c>
       <c r="I25" t="e">
         <v>#NUM!</v>
@@ -1353,10 +1343,10 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>-23.8047209839403</v>
+        <v>-4.102433630163</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000566999185474582</v>
+        <v>0.00699094423616376</v>
       </c>
     </row>
     <row r="26">
@@ -1379,10 +1369,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.726174829376423</v>
+        <v>0.787309260157059</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0123381888325197</v>
+        <v>0.0260559300413379</v>
       </c>
       <c r="I26" t="e">
         <v>#NUM!</v>
@@ -1391,10 +1381,10 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>-18.8317876953919</v>
+        <v>-7.22570746890172</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000787603431081945</v>
+        <v>0.0000000000852434631681588</v>
       </c>
     </row>
     <row r="27">
@@ -1417,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.99458621941925</v>
+        <v>0.97305282075485</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0116005140550009</v>
+        <v>0.0115702647552132</v>
       </c>
       <c r="I27" t="e">
         <v>#NUM!</v>
@@ -1429,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.465418991590467</v>
+        <v>-2.29733706390648</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
@@ -1455,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.909668538594267</v>
+        <v>0.795021807086674</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0722536573323621</v>
+        <v>0.0634546644866023</v>
       </c>
       <c r="I28" t="e">
         <v>#NUM!</v>
@@ -1467,10 +1457,10 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.19195155207688</v>
+        <v>-2.87396777783152</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0.693149040241647</v>
       </c>
     </row>
     <row r="29">
@@ -1493,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.16421383060579</v>
+        <v>1.06380275910963</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0212427592705706</v>
+        <v>0.0369072668430232</v>
       </c>
       <c r="I29" t="e">
         <v>#NUM!</v>
@@ -1505,10 +1495,10 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>8.33291454300976</v>
+        <v>1.78274369909605</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0000000000000149864584292242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1531,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.10798319466477</v>
+        <v>0.93423957602169</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0222189028400059</v>
+        <v>0.032574838856591</v>
       </c>
       <c r="I30" t="e">
         <v>#NUM!</v>
@@ -1543,10 +1533,10 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>5.11340150216637</v>
+        <v>-1.95086731728896</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0000601176674124121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1569,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.679014420403449</v>
+        <v>0.996826048968955</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0149665885351699</v>
+        <v>0.0355641361273192</v>
       </c>
       <c r="I31" t="e">
         <v>#NUM!</v>
@@ -1581,10 +1571,10 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>-17.5628033250805</v>
+        <v>-0.0891040541406018</v>
       </c>
       <c r="L31" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000901963876388979</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1607,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.37238432095164</v>
+        <v>1.09615947763091</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02771277042243</v>
+        <v>0.0289573957127467</v>
       </c>
       <c r="I32" t="e">
         <v>#NUM!</v>
@@ -1619,10 +1609,10 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>15.6760840350203</v>
+        <v>3.47549716562061</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000418820530413153</v>
+        <v>0.0871941621543831</v>
       </c>
     </row>
     <row r="33">
@@ -1645,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.30609920983727</v>
+        <v>0.962655489342009</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0283891740584096</v>
+        <v>0.0325708124005917</v>
       </c>
       <c r="I33" t="e">
         <v>#NUM!</v>
@@ -1657,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>12.2859246675342</v>
+        <v>-1.12488316162564</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0000000000000000000000000000000204830020307309</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1683,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.43008567836034</v>
+        <v>0.987670953756744</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0310769397507797</v>
+        <v>0.0253489041778998</v>
       </c>
       <c r="I34" t="e">
         <v>#NUM!</v>
@@ -1695,10 +1685,10 @@
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>16.4620707604511</v>
+        <v>-0.483363272033547</v>
       </c>
       <c r="L34" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000130547329908282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1721,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.92614550792989</v>
+        <v>0.971236278232986</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0158548305998877</v>
+        <v>0.0325860699457479</v>
       </c>
       <c r="I35" t="e">
         <v>#NUM!</v>
@@ -1733,10 +1723,10 @@
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>-4.48175803881822</v>
+        <v>-0.869881567103076</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0014065823593441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1759,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.881413389554593</v>
+        <v>0.852946997009774</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0166915961132906</v>
+        <v>0.0294558104496612</v>
       </c>
       <c r="I36" t="e">
         <v>#NUM!</v>
@@ -1771,10 +1761,10 @@
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>-6.66560109281154</v>
+        <v>-4.60581226537542</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0000000050081016820252</v>
+        <v>0.000702568776766635</v>
       </c>
     </row>
     <row r="37">
@@ -1797,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.540163790142439</v>
+        <v>0.910087526616886</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0114142346562743</v>
+        <v>0.0229766815378919</v>
       </c>
       <c r="I37" t="e">
         <v>#NUM!</v>
@@ -1809,10 +1799,10 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>-29.1458547631663</v>
+        <v>-3.73175917706372</v>
       </c>
       <c r="L37" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000179136598425654</v>
+        <v>0.0325151778877947</v>
       </c>
     </row>
     <row r="38">
@@ -1835,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.955030458379788</v>
+        <v>0.947751047298279</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0135229541533991</v>
+        <v>0.0142075573639628</v>
       </c>
       <c r="I38" t="e">
         <v>#NUM!</v>
@@ -1847,10 +1837,10 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>-3.24950482924381</v>
+        <v>-3.57975412501244</v>
       </c>
       <c r="L38" t="n">
-        <v>0.219651619069644</v>
+        <v>0.0588099184769317</v>
       </c>
     </row>
     <row r="39">
@@ -1873,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.653511210857937</v>
+        <v>0.854753816247914</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0111546026588739</v>
+        <v>0.0281449927940019</v>
       </c>
       <c r="I39" t="e">
         <v>#NUM!</v>
@@ -1885,10 +1875,10 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>-24.9225181969097</v>
+        <v>-4.76626841776885</v>
       </c>
       <c r="L39" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000805979692762687</v>
+        <v>0.000320914346203096</v>
       </c>
     </row>
     <row r="40">
@@ -1911,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.814890469015333</v>
+        <v>0.941122492555693</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00870064039589803</v>
+        <v>0.0267960764764245</v>
       </c>
       <c r="I40" t="e">
         <v>#NUM!</v>
@@ -1923,10 +1913,10 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>-19.1720781080528</v>
+        <v>-2.1312512572138</v>
       </c>
       <c r="L40" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000120322842635766</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1949,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.29391094038732</v>
+        <v>1.1139126201419</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0144673190178647</v>
+        <v>0.0302604474300461</v>
       </c>
       <c r="I41" t="e">
         <v>#NUM!</v>
@@ -1961,10 +1951,10 @@
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>23.0451277601879</v>
+        <v>3.97110605200712</v>
       </c>
       <c r="L41" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000312749736795677</v>
+        <v>0.0122332924838065</v>
       </c>
     </row>
     <row r="42">
@@ -1987,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.770364099592318</v>
+        <v>0.880752083690341</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0140730829916198</v>
+        <v>0.0171529637488724</v>
       </c>
       <c r="I42" t="e">
         <v>#NUM!</v>
@@ -1999,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>-14.281294698897</v>
+        <v>-6.51998715676216</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0000000000000000000000000000000000000000000543844250741922</v>
+        <v>0.000000012023593410814</v>
       </c>
     </row>
     <row r="43">
@@ -2025,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.960599224618083</v>
+        <v>0.969747757272207</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0128307816520619</v>
+        <v>0.0269180304619724</v>
       </c>
       <c r="I43" t="e">
         <v>#NUM!</v>
@@ -2037,10 +2027,10 @@
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>-3.00949433446497</v>
+        <v>-1.10669159530484</v>
       </c>
       <c r="L43" t="n">
-        <v>0.497197622571776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2063,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.05178778413129</v>
+        <v>0.994947520616302</v>
       </c>
       <c r="H44" t="n">
-        <v>0.014611452211952</v>
+        <v>0.0156068616391319</v>
       </c>
       <c r="I44" t="e">
         <v>#NUM!</v>
@@ -2075,10 +2065,10 @@
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>3.6345602848881</v>
+        <v>-0.322915277623508</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0529064772359688</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2101,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.519875693284768</v>
+        <v>0.780377666996175</v>
       </c>
       <c r="H45" t="n">
-        <v>0.00826753504618392</v>
+        <v>0.0242390010303265</v>
       </c>
       <c r="I45" t="e">
         <v>#NUM!</v>
@@ -2113,10 +2103,10 @@
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>-41.1349653260285</v>
+        <v>-7.98365977432499</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>0.000000000000242917862817655</v>
       </c>
     </row>
     <row r="46">
@@ -2139,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.648254751397966</v>
+        <v>0.859230998607465</v>
       </c>
       <c r="H46" t="n">
-        <v>0.00588531084436482</v>
+        <v>0.0241362257251103</v>
       </c>
       <c r="I46" t="e">
         <v>#NUM!</v>
@@ -2151,10 +2141,10 @@
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>-47.7459871053246</v>
+        <v>-5.40102504502679</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.0000113306605889489</v>
       </c>
     </row>
     <row r="47">
@@ -2177,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1.02932105219666</v>
+        <v>1.01698584460231</v>
       </c>
       <c r="H47" t="n">
-        <v>0.00981998883379468</v>
+        <v>0.0105946132496883</v>
       </c>
       <c r="I47" t="e">
         <v>#NUM!</v>
@@ -2189,10 +2179,10 @@
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>3.02920644271124</v>
+        <v>1.61679277331606</v>
       </c>
       <c r="L47" t="n">
-        <v>0.465874429503548</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2214,24 +2204,14 @@
       <c r="F48" t="n">
         <v>0</v>
       </c>
-      <c r="G48" t="n">
-        <v>1.13596588891929</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.140084014899798</v>
-      </c>
-      <c r="I48" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
       <c r="J48" t="n">
         <v>1</v>
       </c>
-      <c r="K48" t="n">
-        <v>1.03378441699773</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
+      <c r="K48"/>
+      <c r="L48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -2252,24 +2232,14 @@
       <c r="F49" t="n">
         <v>0</v>
       </c>
-      <c r="G49" t="n">
-        <v>1.03747920307872</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.127893883644666</v>
-      </c>
-      <c r="I49" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
       <c r="J49" t="n">
         <v>1</v>
       </c>
-      <c r="K49" t="n">
-        <v>0.29847349769078</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
+      <c r="K49"/>
+      <c r="L49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -2290,24 +2260,14 @@
       <c r="F50" t="n">
         <v>0</v>
       </c>
-      <c r="G50" t="n">
-        <v>1.68330112465087</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.206829708692739</v>
-      </c>
-      <c r="I50" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
       <c r="J50" t="n">
         <v>1</v>
       </c>
-      <c r="K50" t="n">
-        <v>4.23822354761169</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.00428061224083485</v>
-      </c>
+      <c r="K50"/>
+      <c r="L50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -2329,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1.17072248699937</v>
+        <v>1.33501288390638</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0475369664993829</v>
+        <v>0.0554846817211627</v>
       </c>
       <c r="I51" t="e">
         <v>#NUM!</v>
@@ -2341,10 +2301,10 @@
         <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>3.88183224316821</v>
+        <v>6.95218696744993</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0196977536883197</v>
+        <v>0.000000000615029338667233</v>
       </c>
     </row>
     <row r="52">
@@ -2367,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.98403169442332</v>
+        <v>1.02302657471833</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0471073292748154</v>
+        <v>0.0574889074595567</v>
       </c>
       <c r="I52" t="e">
         <v>#NUM!</v>
@@ -2379,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.336256127030814</v>
+        <v>0.405115970331019</v>
       </c>
       <c r="L52" t="n">
         <v>1</v>
@@ -2405,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.898717495034786</v>
+        <v>0.997115632640049</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0429131654770055</v>
+        <v>0.0563812969000502</v>
       </c>
       <c r="I53" t="e">
         <v>#NUM!</v>
@@ -2417,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>-2.23639827971972</v>
+        <v>-0.0510843794936781</v>
       </c>
       <c r="L53" t="n">
         <v>1</v>
@@ -2442,24 +2402,14 @@
       <c r="F54" t="n">
         <v>0</v>
       </c>
-      <c r="G54" t="n">
-        <v>0.886187131963136</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.114182012766427</v>
-      </c>
-      <c r="I54" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
       <c r="J54" t="n">
         <v>1</v>
       </c>
-      <c r="K54" t="n">
-        <v>-0.937761165388684</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
+      <c r="K54"/>
+      <c r="L54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -2480,24 +2430,14 @@
       <c r="F55" t="n">
         <v>0</v>
       </c>
-      <c r="G55" t="n">
-        <v>0.741105449132814</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.10099073235951</v>
-      </c>
-      <c r="I55" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
       <c r="J55" t="n">
         <v>1</v>
       </c>
-      <c r="K55" t="n">
-        <v>-2.19866066347261</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
+      <c r="K55"/>
+      <c r="L55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -2518,24 +2458,14 @@
       <c r="F56" t="n">
         <v>0</v>
       </c>
-      <c r="G56" t="n">
-        <v>1.15439969602302</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.151239797196032</v>
-      </c>
-      <c r="I56" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
       <c r="J56" t="n">
         <v>1</v>
       </c>
-      <c r="K56" t="n">
-        <v>1.09593670717129</v>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
+      <c r="K56"/>
+      <c r="L56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -2557,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.836285500434961</v>
+        <v>0.789295181453776</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0585327632339008</v>
+        <v>0.0582903374910342</v>
       </c>
       <c r="I57" t="e">
         <v>#NUM!</v>
@@ -2569,10 +2499,10 @@
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>-2.5543896442083</v>
+        <v>-3.20394449731484</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0.231805217732052</v>
       </c>
     </row>
     <row r="58">
@@ -2595,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.767660572864069</v>
+        <v>0.746895887418245</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0465794219524237</v>
+        <v>0.0473668913057322</v>
       </c>
       <c r="I58" t="e">
         <v>#NUM!</v>
@@ -2607,10 +2537,10 @@
         <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>-4.35761728552237</v>
+        <v>-4.60165805300446</v>
       </c>
       <c r="L58" t="n">
-        <v>0.00249823479269312</v>
+        <v>0.000716730972531792</v>
       </c>
     </row>
     <row r="59">
@@ -2633,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.641983406341817</v>
+        <v>0.589521324986862</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0482427501403721</v>
+        <v>0.0490523288206868</v>
       </c>
       <c r="I59" t="e">
         <v>#NUM!</v>
@@ -2645,10 +2575,10 @@
         <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>-5.89772425892242</v>
+        <v>-6.35095705935788</v>
       </c>
       <c r="L59" t="n">
-        <v>0.00000070024345040085</v>
+        <v>0.0000000365904840578737</v>
       </c>
     </row>
     <row r="60">
@@ -2670,24 +2600,14 @@
       <c r="F60" t="n">
         <v>0</v>
       </c>
-      <c r="G60" t="n">
-        <v>1.45949765126362</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.180451411765066</v>
-      </c>
-      <c r="I60" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
       <c r="J60" t="n">
         <v>1</v>
       </c>
-      <c r="K60" t="n">
-        <v>3.05802443652215</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0.423322672689161</v>
-      </c>
+      <c r="K60"/>
+      <c r="L60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -2708,24 +2628,14 @@
       <c r="F61" t="n">
         <v>0</v>
       </c>
-      <c r="G61" t="n">
-        <v>1.08769564471415</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.134667082314733</v>
-      </c>
-      <c r="I61" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
       <c r="J61" t="n">
         <v>1</v>
       </c>
-      <c r="K61" t="n">
-        <v>0.678957214621484</v>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
+      <c r="K61"/>
+      <c r="L61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -2746,24 +2656,14 @@
       <c r="F62" t="n">
         <v>0</v>
       </c>
-      <c r="G62" t="n">
-        <v>1.22237090698249</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.151433359151375</v>
-      </c>
-      <c r="I62" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
       <c r="J62" t="n">
         <v>1</v>
       </c>
-      <c r="K62" t="n">
-        <v>1.62079686534102</v>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
+      <c r="K62"/>
+      <c r="L62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -2784,24 +2684,14 @@
       <c r="F63" t="n">
         <v>0</v>
       </c>
-      <c r="G63" t="n">
-        <v>1.67418810171068</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.20622169822173</v>
-      </c>
-      <c r="I63" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
       <c r="J63" t="n">
         <v>1</v>
       </c>
-      <c r="K63" t="n">
-        <v>4.18363620300113</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.00545077844896485</v>
-      </c>
+      <c r="K63"/>
+      <c r="L63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -2823,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1.2273882179993</v>
+        <v>1.35117574623846</v>
       </c>
       <c r="H64" t="n">
-        <v>0.052736423940865</v>
+        <v>0.0520105351243681</v>
       </c>
       <c r="I64" t="e">
         <v>#NUM!</v>
@@ -2835,10 +2725,10 @@
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>4.76857789288562</v>
+        <v>7.81899866562481</v>
       </c>
       <c r="L64" t="n">
-        <v>0.000352508781335592</v>
+        <v>0.000000000000910492490657374</v>
       </c>
     </row>
     <row r="65">
@@ -2861,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1.37935980211608</v>
+        <v>1.21708540333448</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0585786041377091</v>
+        <v>0.0536159978237183</v>
       </c>
       <c r="I65" t="e">
         <v>#NUM!</v>
@@ -2873,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>7.57322556325326</v>
+        <v>4.45962725568026</v>
       </c>
       <c r="L65" t="n">
-        <v>0.00000000000691731767864162</v>
+        <v>0.0014039495727856</v>
       </c>
     </row>
     <row r="66">
@@ -2899,10 +2789,10 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1.64938863749121</v>
+        <v>1.54199016025003</v>
       </c>
       <c r="H66" t="n">
-        <v>0.101251699979038</v>
+        <v>0.101923179951053</v>
       </c>
       <c r="I66" t="e">
         <v>#NUM!</v>
@@ -2911,10 +2801,10 @@
         <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>8.15158482037519</v>
+        <v>6.55195102299727</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0000000000000682452663141906</v>
+        <v>0.00000000971111896277336</v>
       </c>
     </row>
     <row r="67">
@@ -2937,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.942217542555954</v>
+        <v>1.00918760804478</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0465272358127414</v>
+        <v>0.0588687046247265</v>
       </c>
       <c r="I67" t="e">
         <v>#NUM!</v>
@@ -2949,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>-1.20531412764987</v>
+        <v>0.156784245675726</v>
       </c>
       <c r="L67" t="n">
         <v>1</v>
@@ -2975,10 +2865,10 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1.0588801358781</v>
+        <v>0.909036082387302</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0519686433928507</v>
+        <v>0.0531845319212445</v>
       </c>
       <c r="I68" t="e">
         <v>#NUM!</v>
@@ -2987,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>1.16571288064832</v>
+        <v>-1.63008330391292</v>
       </c>
       <c r="L68" t="n">
         <v>1</v>
@@ -3013,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1.45026727525862</v>
+        <v>1.12349767607007</v>
       </c>
       <c r="H69" t="n">
-        <v>0.068821804282887</v>
+        <v>0.0555213464819286</v>
       </c>
       <c r="I69" t="e">
         <v>#NUM!</v>
@@ -3025,10 +2915,10 @@
         <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>7.8337639078293</v>
+        <v>2.35634858929193</v>
       </c>
       <c r="L69" t="n">
-        <v>0.000000000000899607226204057</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3050,24 +2940,14 @@
       <c r="F70" t="n">
         <v>0</v>
       </c>
-      <c r="G70" t="n">
-        <v>1.21812388391068</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.177930102092684</v>
-      </c>
-      <c r="I70" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
       <c r="J70" t="n">
         <v>1</v>
       </c>
-      <c r="K70" t="n">
-        <v>1.35081307065664</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
+      <c r="K70"/>
+      <c r="L70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -3088,24 +2968,14 @@
       <c r="F71" t="n">
         <v>0</v>
       </c>
-      <c r="G71" t="n">
-        <v>1.55898177508873</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.193178804598517</v>
-      </c>
-      <c r="I71" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
       <c r="J71" t="n">
         <v>1</v>
       </c>
-      <c r="K71" t="n">
-        <v>3.58341175103868</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0.0644357213552172</v>
-      </c>
+      <c r="K71"/>
+      <c r="L71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -3126,24 +2996,14 @@
       <c r="F72" t="n">
         <v>0</v>
       </c>
-      <c r="G72" t="n">
-        <v>1.48368414991958</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.184242853456688</v>
-      </c>
-      <c r="I72" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
       <c r="J72" t="n">
         <v>1</v>
       </c>
-      <c r="K72" t="n">
-        <v>3.17708585343532</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.282649682213299</v>
-      </c>
+      <c r="K72"/>
+      <c r="L72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -3164,24 +3024,14 @@
       <c r="F73" t="n">
         <v>0</v>
       </c>
-      <c r="G73" t="n">
-        <v>0.909258315442442</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.113225604042208</v>
-      </c>
-      <c r="I73" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
       <c r="J73" t="n">
         <v>1</v>
       </c>
-      <c r="K73" t="n">
-        <v>-0.763909828530297</v>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
+      <c r="K73"/>
+      <c r="L73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -3203,10 +3053,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1.75920154881417</v>
+        <v>1.50141444696137</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07480349299978</v>
+        <v>0.0606037893330812</v>
       </c>
       <c r="I74" t="e">
         <v>#NUM!</v>
@@ -3215,10 +3065,10 @@
         <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>13.2841745559428</v>
+        <v>10.0684510227129</v>
       </c>
       <c r="L74" t="n">
-        <v>0.0000000000000000000000000000000000000543390161905579</v>
+        <v>0.00000000000000000000130247590075557</v>
       </c>
     </row>
     <row r="75">
@@ -3241,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1.6742334619922</v>
+        <v>1.31855344832536</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0724971124155133</v>
+        <v>0.0594581363145851</v>
       </c>
       <c r="I75" t="e">
         <v>#NUM!</v>
@@ -3253,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>11.9015126273418</v>
+        <v>6.13249165698989</v>
       </c>
       <c r="L75" t="n">
-        <v>0.00000000000000000000000000000220820333228455</v>
+        <v>0.000000147937652913753</v>
       </c>
     </row>
     <row r="76">
@@ -3279,10 +3129,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>2.00198791097229</v>
+        <v>1.67054541736434</v>
       </c>
       <c r="H76" t="n">
-        <v>0.124057606034666</v>
+        <v>0.111775511533454</v>
       </c>
       <c r="I76" t="e">
         <v>#NUM!</v>
@@ -3291,10 +3141,10 @@
         <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>11.2017410219076</v>
+        <v>7.66930657445966</v>
       </c>
       <c r="L76" t="n">
-        <v>0.00000000000000000000000000759616461451392</v>
+        <v>0.00000000000295708014218961</v>
       </c>
     </row>
     <row r="77">
@@ -3317,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1.35046966874604</v>
+        <v>1.12140027574579</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0662696234915116</v>
+        <v>0.0658901572430852</v>
       </c>
       <c r="I77" t="e">
         <v>#NUM!</v>
@@ -3329,10 +3179,10 @@
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>6.12274340209048</v>
+        <v>1.95003282819752</v>
       </c>
       <c r="L77" t="n">
-        <v>0.000000174757735081016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3355,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1.28524301854113</v>
+        <v>0.984822147895356</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0640263327134828</v>
+        <v>0.0584326845793162</v>
       </c>
       <c r="I78" t="e">
         <v>#NUM!</v>
@@ -3367,10 +3217,10 @@
         <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>5.03744193903469</v>
+        <v>-0.25776808658008</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0000896409750444646</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3393,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.787646010801023</v>
+        <v>1.0507972428272</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0398324739079015</v>
+        <v>0.057236547974972</v>
       </c>
       <c r="I79" t="e">
         <v>#NUM!</v>
@@ -3405,10 +3255,10 @@
         <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>-4.72017466627354</v>
+        <v>0.909665541404509</v>
       </c>
       <c r="L79" t="n">
-        <v>0.000447720203383795</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3430,24 +3280,14 @@
       <c r="F80" t="n">
         <v>0</v>
       </c>
-      <c r="G80" t="n">
-        <v>1.27886736966009</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.157858375221813</v>
-      </c>
-      <c r="I80" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
       <c r="J80" t="n">
         <v>1</v>
       </c>
-      <c r="K80" t="n">
-        <v>1.99273031296683</v>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
+      <c r="K80"/>
+      <c r="L80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -3468,24 +3308,14 @@
       <c r="F81" t="n">
         <v>0</v>
       </c>
-      <c r="G81" t="n">
-        <v>0.875107339184899</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.108314263267184</v>
-      </c>
-      <c r="I81" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
       <c r="J81" t="n">
         <v>1</v>
       </c>
-      <c r="K81" t="n">
-        <v>-1.07785394469107</v>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
+      <c r="K81"/>
+      <c r="L81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -3506,24 +3336,14 @@
       <c r="F82" t="n">
         <v>0</v>
       </c>
-      <c r="G82" t="n">
-        <v>1.09120795208846</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.134177933080022</v>
-      </c>
-      <c r="I82" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
       <c r="J82" t="n">
         <v>1</v>
       </c>
-      <c r="K82" t="n">
-        <v>0.709851511496323</v>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
+      <c r="K82"/>
+      <c r="L82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -3544,24 +3364,14 @@
       <c r="F83" t="n">
         <v>0</v>
       </c>
-      <c r="G83" t="n">
-        <v>1.73265728478945</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.213323250526701</v>
-      </c>
-      <c r="I83" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
       <c r="J83" t="n">
         <v>1</v>
       </c>
-      <c r="K83" t="n">
-        <v>4.46442604636719</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.00152538976749826</v>
-      </c>
+      <c r="K83"/>
+      <c r="L83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -3583,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.987497231252171</v>
+        <v>1.20636999417458</v>
       </c>
       <c r="H84" t="n">
-        <v>0.040986571324345</v>
+        <v>0.0403123726587567</v>
       </c>
       <c r="I84" t="e">
         <v>#NUM!</v>
@@ -3595,10 +3405,10 @@
         <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.303130536278013</v>
+        <v>5.61450770143996</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0.0000033707973163578</v>
       </c>
     </row>
     <row r="85">
@@ -3621,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1.23135161043374</v>
+        <v>1.32826775883348</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0486845152891764</v>
+        <v>0.0539433590524323</v>
       </c>
       <c r="I85" t="e">
         <v>#NUM!</v>
@@ -3633,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>5.26367741603256</v>
+        <v>6.98997779303499</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0000268284019806771</v>
+        <v>0.000000000470129885740302</v>
       </c>
     </row>
     <row r="86">
@@ -3659,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1.4724057870109</v>
+        <v>1.68285299346055</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0875254058253025</v>
+        <v>0.105291293839047</v>
       </c>
       <c r="I86" t="e">
         <v>#NUM!</v>
@@ -3671,10 +3481,10 @@
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>6.50862841081782</v>
+        <v>8.31891290231849</v>
       </c>
       <c r="L86" t="n">
-        <v>0.000000014409612204273</v>
+        <v>0.0000000000000151803116839595</v>
       </c>
     </row>
     <row r="87">
@@ -3697,10 +3507,10 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.758062690244724</v>
+        <v>0.901032787353765</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0371685483486204</v>
+        <v>0.0517077041912604</v>
       </c>
       <c r="I87" t="e">
         <v>#NUM!</v>
@@ -3709,10 +3519,10 @@
         <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>-5.64927018536872</v>
+        <v>-1.81597502458196</v>
       </c>
       <c r="L87" t="n">
-        <v>0.00000306147827964671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3735,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0.945260082662659</v>
+        <v>0.992077726462972</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0444985547334547</v>
+        <v>0.055388013737652</v>
       </c>
       <c r="I88" t="e">
         <v>#NUM!</v>
@@ -3747,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>-1.19584955047651</v>
+        <v>-0.142464201106813</v>
       </c>
       <c r="L88" t="n">
         <v>1</v>
@@ -3773,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1.50091626908649</v>
+        <v>1.17422323704944</v>
       </c>
       <c r="H89" t="n">
-        <v>0.0710830454034118</v>
+        <v>0.0581376278159285</v>
       </c>
       <c r="I89" t="e">
         <v>#NUM!</v>
@@ -3785,10 +3595,10 @@
         <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>8.57427706883832</v>
+        <v>3.24382516527235</v>
       </c>
       <c r="L89" t="n">
-        <v>0.00000000000000189451132470794</v>
+        <v>0.201670751817491</v>
       </c>
     </row>
     <row r="90">
@@ -3811,10 +3621,10 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0.778326630355168</v>
+        <v>0.952146744173879</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0148259993578342</v>
+        <v>0.0317981481272795</v>
       </c>
       <c r="I90" t="e">
         <v>#NUM!</v>
@@ -3823,10 +3633,10 @@
         <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>-13.1563249957143</v>
+        <v>-1.46831114759831</v>
       </c>
       <c r="L90" t="n">
-        <v>0.000000000000000000000000000000000000297379410662101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3849,10 +3659,10 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0.710846778122928</v>
+        <v>0.928031027389973</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0134172107172986</v>
+        <v>0.0304213035010454</v>
       </c>
       <c r="I91" t="e">
         <v>#NUM!</v>
@@ -3861,10 +3671,10 @@
         <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>-18.0820630226141</v>
+        <v>-2.27849347202996</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000838393071031191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3887,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1.15334281161294</v>
+        <v>1.07461459287792</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0181823488243941</v>
+        <v>0.0314336027543448</v>
       </c>
       <c r="I92" t="e">
         <v>#NUM!</v>
@@ -3899,10 +3709,10 @@
         <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>9.04949621784822</v>
+        <v>2.46015389576332</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0000000000000000272895948462911</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3925,10 +3735,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.953832267436706</v>
+        <v>0.988037927429447</v>
       </c>
       <c r="H93" t="n">
-        <v>0.0199455921337503</v>
+        <v>0.0324905551574241</v>
       </c>
       <c r="I93" t="e">
         <v>#NUM!</v>
@@ -3937,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>-2.26040983421084</v>
+        <v>-0.365959889771105</v>
       </c>
       <c r="L93" t="n">
         <v>1</v>
@@ -3963,10 +3773,10 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.678517478268164</v>
+        <v>0.910572933534514</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0107207162096573</v>
+        <v>0.0277054164009224</v>
       </c>
       <c r="I94" t="e">
         <v>#NUM!</v>
@@ -3975,10 +3785,10 @@
         <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>-24.5468337442655</v>
+        <v>-3.07895167428509</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000888283534744147</v>
+        <v>0.355218941183103</v>
       </c>
     </row>
     <row r="95">
@@ -4001,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0.61969094274331</v>
+        <v>0.887510187050766</v>
       </c>
       <c r="H95" t="n">
-        <v>0.00968802028036366</v>
+        <v>0.0275765541269696</v>
       </c>
       <c r="I95" t="e">
         <v>#NUM!</v>
@@ -4013,10 +3823,10 @@
         <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>-30.6092914531793</v>
+        <v>-3.84062764308795</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000174940700342093</v>
+        <v>0.0209851441928006</v>
       </c>
     </row>
     <row r="96">
@@ -4039,10 +3849,10 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0.607186404990707</v>
+        <v>0.695147618856276</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0254885508817494</v>
+        <v>0.0309795526960674</v>
       </c>
       <c r="I96" t="e">
         <v>#NUM!</v>
@@ -4051,10 +3861,10 @@
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>-11.885222674046</v>
+        <v>-8.15948714057022</v>
       </c>
       <c r="L96" t="n">
-        <v>0.00000000000000000000000000000268390431681984</v>
+        <v>0.0000000000000575329662106876</v>
       </c>
     </row>
     <row r="97">
@@ -4077,10 +3887,10 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0.507781186554958</v>
+        <v>0.548676665962325</v>
       </c>
       <c r="H97" t="n">
-        <v>0.0310019929076464</v>
+        <v>0.0380145630457853</v>
       </c>
       <c r="I97" t="e">
         <v>#NUM!</v>
@@ -4089,10 +3899,10 @@
         <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>-11.1001146626561</v>
+        <v>-8.66354698630527</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0000000000000000000000000238037804951645</v>
+        <v>0.00000000000000078199656499548</v>
       </c>
     </row>
     <row r="98">
@@ -4115,10 +3925,10 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0.790956871375263</v>
+        <v>0.930715552952308</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0383661022315825</v>
+        <v>0.0525079905904524</v>
       </c>
       <c r="I98" t="e">
         <v>#NUM!</v>
@@ -4127,10 +3937,10 @@
         <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>-4.83470402280039</v>
+        <v>-1.27269856643284</v>
       </c>
       <c r="L98" t="n">
-        <v>0.000253353378414984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -4153,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0.681353697364102</v>
+        <v>0.584154343838021</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0420709562497413</v>
+        <v>0.0405465680704213</v>
       </c>
       <c r="I99" t="e">
         <v>#NUM!</v>
@@ -4165,10 +3975,10 @@
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>-6.21372882016814</v>
+        <v>-7.74505893255975</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0000000983094074276911</v>
+        <v>0.00000000000163369167828284</v>
       </c>
     </row>
     <row r="100">
@@ -4191,10 +4001,10 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0.529323515713457</v>
+        <v>0.664795222390529</v>
       </c>
       <c r="H100" t="n">
-        <v>0.0215015702778617</v>
+        <v>0.0281249802860491</v>
       </c>
       <c r="I100" t="e">
         <v>#NUM!</v>
@@ -4203,10 +4013,10 @@
         <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>-15.6608120820827</v>
+        <v>-9.65049856187939</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000532560876145929</v>
+        <v>0.0000000000000000000836486200178861</v>
       </c>
     </row>
     <row r="101">
@@ -4229,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0.442665581230422</v>
+        <v>0.524719665686336</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0266171331536725</v>
+        <v>0.0359413272685119</v>
       </c>
       <c r="I101" t="e">
         <v>#NUM!</v>
@@ -4241,10 +4051,10 @@
         <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>-13.5531573581724</v>
+        <v>-9.41498501572589</v>
       </c>
       <c r="L101" t="n">
-        <v>0.00000000000000000000000000000000000000144198810309875</v>
+        <v>0.000000000000000000809086296978499</v>
       </c>
     </row>
     <row r="102">
@@ -4267,10 +4077,10 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0.745253439614946</v>
+        <v>0.939266602654017</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0169835496890647</v>
+        <v>0.0345460488535987</v>
       </c>
       <c r="I102" t="e">
         <v>#NUM!</v>
@@ -4279,10 +4089,10 @@
         <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>-12.9023417795704</v>
+        <v>-1.70354102308865</v>
       </c>
       <c r="L102" t="n">
-        <v>0.00000000000000000000000000000000000829585601989898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -4305,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0.837528519435554</v>
+        <v>0.846054020072697</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0178123197070437</v>
+        <v>0.0304390266103275</v>
       </c>
       <c r="I103" t="e">
         <v>#NUM!</v>
@@ -4317,10 +4127,10 @@
         <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>-8.33657703132323</v>
+        <v>-4.64655463204634</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0000000000000145296808857439</v>
+        <v>0.000577167366564512</v>
       </c>
     </row>
     <row r="104">
@@ -4343,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1.14709886669649</v>
+        <v>1.04565676082419</v>
       </c>
       <c r="H104" t="n">
-        <v>0.0198719854402754</v>
+        <v>0.0322420739526219</v>
       </c>
       <c r="I104" t="e">
         <v>#NUM!</v>
@@ -4355,10 +4165,10 @@
         <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>7.92187048127345</v>
+        <v>1.44790688887808</v>
       </c>
       <c r="L104" t="n">
-        <v>0.00000000000044453151103055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -4381,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>1.12381704654498</v>
+        <v>0.900760250265541</v>
       </c>
       <c r="H105" t="n">
-        <v>0.0266826963977504</v>
+        <v>0.0321883433163141</v>
       </c>
       <c r="I105" t="e">
         <v>#NUM!</v>
@@ -4393,10 +4203,10 @@
         <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>4.91645409512558</v>
+        <v>-2.92478529421271</v>
       </c>
       <c r="L105" t="n">
-        <v>0.00016743911563947</v>
+        <v>0.589426665387593</v>
       </c>
     </row>
     <row r="106">
@@ -4419,10 +4229,10 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0.649685446696666</v>
+        <v>0.898255180709286</v>
       </c>
       <c r="H106" t="n">
-        <v>0.0130438939032807</v>
+        <v>0.0307444012127431</v>
       </c>
       <c r="I106" t="e">
         <v>#NUM!</v>
@@ -4431,10 +4241,10 @@
         <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>-21.480385422393</v>
+        <v>-3.13500188965667</v>
       </c>
       <c r="L106" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000451302289442629</v>
+        <v>0.293868637777654</v>
       </c>
     </row>
     <row r="107">
@@ -4457,10 +4267,10 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0.730127579889902</v>
+        <v>0.809112561378015</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0134507774576743</v>
+        <v>0.0279141561044207</v>
       </c>
       <c r="I107" t="e">
         <v>#NUM!</v>
@@ -4469,10 +4279,10 @@
         <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>-17.0734668817604</v>
+        <v>-6.1396799905736</v>
       </c>
       <c r="L107" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000444389268924583</v>
+        <v>0.000000141396284185588</v>
       </c>
     </row>
     <row r="108">
@@ -4495,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0.834618598293767</v>
+        <v>0.780001717274676</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0668652735632853</v>
+        <v>0.0626310829864826</v>
       </c>
       <c r="I108" t="e">
         <v>#NUM!</v>
@@ -4507,10 +4317,10 @@
         <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>-2.25651819748287</v>
+        <v>-3.09428737955066</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>0.337359549803867</v>
       </c>
     </row>
     <row r="109">
@@ -4533,10 +4343,10 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1.06816326407856</v>
+        <v>1.04370467772161</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0227518636450014</v>
+        <v>0.0387425689916156</v>
       </c>
       <c r="I109" t="e">
         <v>#NUM!</v>
@@ -4545,10 +4355,10 @@
         <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>3.0958046042013</v>
+        <v>1.15237866841351</v>
       </c>
       <c r="L109" t="n">
-        <v>0.372931348239697</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -4571,10 +4381,10 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1.01657179690219</v>
+        <v>0.916589289938106</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0232023233466734</v>
+        <v>0.0342266353027718</v>
       </c>
       <c r="I110" t="e">
         <v>#NUM!</v>
@@ -4583,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>0.720115679729987</v>
+        <v>-2.33242528831757</v>
       </c>
       <c r="L110" t="n">
         <v>1</v>
@@ -4609,10 +4419,10 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0.622994024454384</v>
+        <v>0.977993336898681</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0152371003669959</v>
+        <v>0.0371542996541982</v>
       </c>
       <c r="I111" t="e">
         <v>#NUM!</v>
@@ -4621,10 +4431,10 @@
         <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>-19.3483142026345</v>
+        <v>-0.585738948302157</v>
       </c>
       <c r="L111" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000400176325930423</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -4647,10 +4457,10 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1.43328860666574</v>
+        <v>1.11119108757033</v>
       </c>
       <c r="H112" t="n">
-        <v>0.034304622385779</v>
+        <v>0.0319446624657026</v>
       </c>
       <c r="I112" t="e">
         <v>#NUM!</v>
@@ -4659,10 +4469,10 @@
         <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>15.0400457782002</v>
+        <v>3.66745604039592</v>
       </c>
       <c r="L112" t="n">
-        <v>0.000000000000000000000000000000000000000000000000762417733466764</v>
+        <v>0.0418908361797314</v>
       </c>
     </row>
     <row r="113">
@@ -4685,10 +4495,10 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1.3640618652192</v>
+        <v>0.975856362132078</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0342750673123023</v>
+        <v>0.0360961987740742</v>
       </c>
       <c r="I113" t="e">
         <v>#NUM!</v>
@@ -4697,10 +4507,10 @@
         <v>1</v>
       </c>
       <c r="K113" t="n">
-        <v>12.355805872293</v>
+        <v>-0.660729015925219</v>
       </c>
       <c r="L113" t="n">
-        <v>0.00000000000000000000000000000000861064345964657</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -4723,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1.21377573815313</v>
+        <v>1.08336970003328</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0283436067377684</v>
+        <v>0.025558091444889</v>
       </c>
       <c r="I114" t="e">
         <v>#NUM!</v>
@@ -4735,10 +4545,10 @@
         <v>1</v>
       </c>
       <c r="K114" t="n">
-        <v>8.29647380070326</v>
+        <v>3.39431493542984</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0000000000000203769602694872</v>
+        <v>0.117648894064596</v>
       </c>
     </row>
     <row r="115">
@@ -4761,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0.931186748666875</v>
+        <v>0.998133151168038</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0172711101444519</v>
+        <v>0.0348548378258709</v>
       </c>
       <c r="I115" t="e">
         <v>#NUM!</v>
@@ -4773,10 +4583,10 @@
         <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>-3.84395452403704</v>
+        <v>-0.0535106544927669</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0230028155178062</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -4799,10 +4609,10 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0.886211142226825</v>
+        <v>0.876568032913256</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0178243611269319</v>
+        <v>0.0314543673597368</v>
       </c>
       <c r="I116" t="e">
         <v>#NUM!</v>
@@ -4811,10 +4621,10 @@
         <v>1</v>
       </c>
       <c r="K116" t="n">
-        <v>-6.00606928340756</v>
+        <v>-3.67134750423054</v>
       </c>
       <c r="L116" t="n">
-        <v>0.000000361142489008617</v>
+        <v>0.0412580288127416</v>
       </c>
     </row>
     <row r="117">
@@ -4837,10 +4647,10 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0.543104036227092</v>
+        <v>0.935290980309663</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0120143555724262</v>
+        <v>0.0251431240875259</v>
       </c>
       <c r="I117" t="e">
         <v>#NUM!</v>
@@ -4849,10 +4659,10 @@
         <v>1</v>
       </c>
       <c r="K117" t="n">
-        <v>-27.5953409963053</v>
+        <v>-2.48850188964465</v>
       </c>
       <c r="L117" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000240462712304682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -4875,10 +4685,10 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0.876238045708988</v>
+        <v>0.929845493358822</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0175110902344185</v>
+        <v>0.01985716861081</v>
       </c>
       <c r="I118" t="e">
         <v>#NUM!</v>
@@ -4887,10 +4697,10 @@
         <v>1</v>
       </c>
       <c r="K118" t="n">
-        <v>-6.61103128399927</v>
+        <v>-3.40602564312597</v>
       </c>
       <c r="L118" t="n">
-        <v>0.00000000725138447975815</v>
+        <v>0.112716338794495</v>
       </c>
     </row>
     <row r="119">
@@ -4913,10 +4723,10 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0.599594893782282</v>
+        <v>0.838605228910118</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0131599048022805</v>
+        <v>0.0297500146015668</v>
       </c>
       <c r="I119" t="e">
         <v>#NUM!</v>
@@ -4925,10 +4735,10 @@
         <v>1</v>
       </c>
       <c r="K119" t="n">
-        <v>-23.3051385750002</v>
+        <v>-4.9615866276036</v>
       </c>
       <c r="L119" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000747097142494868</v>
+        <v>0.000119562642820829</v>
       </c>
     </row>
     <row r="120">
@@ -4951,10 +4761,10 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0.74765995761878</v>
+        <v>0.923342169756653</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0129995090349319</v>
+        <v>0.0291096985144863</v>
       </c>
       <c r="I120" t="e">
         <v>#NUM!</v>
@@ -4963,10 +4773,10 @@
         <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>-16.7256127565401</v>
+        <v>-2.52979337983734</v>
       </c>
       <c r="L120" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000162059398959394</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -4989,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>1.18716003639289</v>
+        <v>1.09286782935992</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0212084521163585</v>
+        <v>0.0329714717480297</v>
       </c>
       <c r="I121" t="e">
         <v>#NUM!</v>
@@ -5001,10 +4811,10 @@
         <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>9.6034279734577</v>
+        <v>2.94352740177196</v>
       </c>
       <c r="L121" t="n">
-        <v>0.000000000000000000146924889277422</v>
+        <v>0.554886613815214</v>
       </c>
     </row>
     <row r="122">
@@ -5027,10 +4837,10 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0.804551662441274</v>
+        <v>0.892829816944979</v>
       </c>
       <c r="H122" t="n">
-        <v>0.019125625875838</v>
+        <v>0.0247111381369479</v>
       </c>
       <c r="I122" t="e">
         <v>#NUM!</v>
@@ -5039,10 +4849,10 @@
         <v>1</v>
       </c>
       <c r="K122" t="n">
-        <v>-9.14824591026236</v>
+        <v>-4.09574639137896</v>
       </c>
       <c r="L122" t="n">
-        <v>0.000000000000000010994436094255</v>
+        <v>0.00719585785532102</v>
       </c>
     </row>
     <row r="123">
@@ -5065,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>1.00322912700017</v>
+        <v>0.983045886170798</v>
       </c>
       <c r="H123" t="n">
-        <v>0.0195023015595561</v>
+        <v>0.0312592856790558</v>
       </c>
       <c r="I123" t="e">
         <v>#NUM!</v>
@@ -5077,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="K123" t="n">
-        <v>0.16584376044578</v>
+        <v>-0.537746570320819</v>
       </c>
       <c r="L123" t="n">
         <v>1</v>
@@ -5103,10 +4913,10 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0.892697908511414</v>
+        <v>1.09135131782403</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0166433594389051</v>
+        <v>0.0261317018511185</v>
       </c>
       <c r="I124" t="e">
         <v>#NUM!</v>
@@ -5115,10 +4925,10 @@
         <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>-6.08816392301251</v>
+        <v>3.65082603588075</v>
       </c>
       <c r="L124" t="n">
-        <v>0.000000217004513817181</v>
+        <v>0.0446991014708882</v>
       </c>
     </row>
     <row r="125">
@@ -5141,10 +4951,10 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0.522705506203704</v>
+        <v>0.80198900856255</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0100475485302985</v>
+        <v>0.0261254878587804</v>
       </c>
       <c r="I125" t="e">
         <v>#NUM!</v>
@@ -5153,10 +4963,10 @@
         <v>1</v>
       </c>
       <c r="K125" t="n">
-        <v>-33.7493699960589</v>
+        <v>-6.77373748308012</v>
       </c>
       <c r="L125" t="n">
-        <v>2.07492569665501e-247</v>
+        <v>0.00000000214600387612157</v>
       </c>
     </row>
     <row r="126">
@@ -5179,10 +4989,10 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0.651783363514215</v>
+        <v>0.88302606012787</v>
       </c>
       <c r="H126" t="n">
-        <v>0.00898160371681896</v>
+        <v>0.026277419280229</v>
       </c>
       <c r="I126" t="e">
         <v>#NUM!</v>
@@ -5191,10 +5001,10 @@
         <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>-31.0625294837432</v>
+        <v>-4.18035501080995</v>
       </c>
       <c r="L126" t="n">
-        <v>1.46831019473792e-209</v>
+        <v>0.00497702925484608</v>
       </c>
     </row>
     <row r="127">
@@ -5217,10 +5027,10 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>1.03492390312595</v>
+        <v>1.04514968037745</v>
       </c>
       <c r="H127" t="n">
-        <v>0.0149000113076503</v>
+        <v>0.0155179586424556</v>
       </c>
       <c r="I127" t="e">
         <v>#NUM!</v>
@@ -5229,10 +5039,10 @@
         <v>1</v>
       </c>
       <c r="K127" t="n">
-        <v>2.38434481701643</v>
+        <v>2.97422656450032</v>
       </c>
       <c r="L127" t="n">
-        <v>1</v>
+        <v>0.502275069226798</v>
       </c>
     </row>
     <row r="128">
@@ -5255,10 +5065,10 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0.932553662171346</v>
+        <v>1.22069826653802</v>
       </c>
       <c r="H128" t="n">
-        <v>0.074569610344776</v>
+        <v>0.103390234947668</v>
       </c>
       <c r="I128" t="e">
         <v>#NUM!</v>
@@ -5267,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="K128" t="n">
-        <v>-0.873263251413653</v>
+        <v>2.35452956480118</v>
       </c>
       <c r="L128" t="n">
         <v>1</v>
@@ -5293,10 +5103,10 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0.851702537633515</v>
+        <v>1.1897807489867</v>
       </c>
       <c r="H129" t="n">
-        <v>0.0680280047515091</v>
+        <v>0.100509046011742</v>
       </c>
       <c r="I129" t="e">
         <v>#NUM!</v>
@@ -5305,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>-2.00966563095344</v>
+        <v>2.05699957792577</v>
       </c>
       <c r="L129" t="n">
         <v>1</v>
@@ -5331,10 +5141,10 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>1.38188007548688</v>
+        <v>1.37770798330114</v>
       </c>
       <c r="H130" t="n">
-        <v>0.109471678666708</v>
+        <v>0.114472377221898</v>
       </c>
       <c r="I130" t="e">
         <v>#NUM!</v>
@@ -5343,10 +5153,10 @@
         <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>4.08290190830018</v>
+        <v>3.85636174025791</v>
       </c>
       <c r="L130" t="n">
-        <v>0.00845059196257754</v>
+        <v>0.0196799013442148</v>
       </c>
     </row>
     <row r="131">
@@ -5369,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0.665485138862302</v>
+        <v>0.889170133275487</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0132072590549322</v>
+        <v>0.0293030637367533</v>
       </c>
       <c r="I131" t="e">
         <v>#NUM!</v>
@@ -5381,10 +5191,10 @@
         <v>1</v>
       </c>
       <c r="K131" t="n">
-        <v>-20.5198885571408</v>
+        <v>-3.56440096420414</v>
       </c>
       <c r="L131" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000271775835553559</v>
+        <v>0.0623616671853156</v>
       </c>
     </row>
     <row r="132">
@@ -5407,10 +5217,10 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>1.24933241701126</v>
+        <v>0.973571811024025</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0296501812145849</v>
+        <v>0.0366337434332604</v>
       </c>
       <c r="I132" t="e">
         <v>#NUM!</v>
@@ -5419,10 +5229,10 @@
         <v>1</v>
       </c>
       <c r="K132" t="n">
-        <v>9.37981004570988</v>
+        <v>-0.711798581835153</v>
       </c>
       <c r="L132" t="n">
-        <v>0.00000000000000000125574210919992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -5445,10 +5255,10 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>1.14101700854271</v>
+        <v>0.948913445906345</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0266951643333489</v>
+        <v>0.0362432042613344</v>
       </c>
       <c r="I133" t="e">
         <v>#NUM!</v>
@@ -5457,10 +5267,10 @@
         <v>1</v>
       </c>
       <c r="K133" t="n">
-        <v>5.63858443337943</v>
+        <v>-1.37291473619988</v>
       </c>
       <c r="L133" t="n">
-        <v>0.00000325762120298695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -5483,10 +5293,10 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0.727501647137979</v>
+        <v>0.891212933844709</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0642084219448833</v>
+        <v>0.0799278073032975</v>
       </c>
       <c r="I134" t="e">
         <v>#NUM!</v>
@@ -5495,10 +5305,10 @@
         <v>1</v>
       </c>
       <c r="K134" t="n">
-        <v>-3.6046152673743</v>
+        <v>-1.28419242000432</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0593969794778018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -5521,10 +5331,10 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0.608399079044043</v>
+        <v>0.703430074332912</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0600880874995548</v>
+        <v>0.0733087816761851</v>
       </c>
       <c r="I135" t="e">
         <v>#NUM!</v>
@@ -5533,10 +5343,10 @@
         <v>1</v>
       </c>
       <c r="K135" t="n">
-        <v>-5.03141733888562</v>
+        <v>-3.37554945213102</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0000925047338611458</v>
+        <v>0.125973051724036</v>
       </c>
     </row>
     <row r="136">
@@ -5559,10 +5369,10 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>0.947686611575919</v>
+        <v>1.19322244084824</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0865975402884495</v>
+        <v>0.114644826465482</v>
       </c>
       <c r="I136" t="e">
         <v>#NUM!</v>
@@ -5571,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="K136" t="n">
-        <v>-0.588013673379902</v>
+        <v>1.83865069372243</v>
       </c>
       <c r="L136" t="n">
         <v>1</v>
@@ -5597,10 +5407,10 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0.475377878673811</v>
+        <v>0.525701070115041</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0291994270388462</v>
+        <v>0.0365272948364722</v>
       </c>
       <c r="I137" t="e">
         <v>#NUM!</v>
@@ -5609,10 +5419,10 @@
         <v>1</v>
       </c>
       <c r="K137" t="n">
-        <v>-12.1068301911375</v>
+        <v>-9.25438460648619</v>
       </c>
       <c r="L137" t="n">
-        <v>0.000000000000000000000000000000184637155042185</v>
+        <v>0.00000000000000000368450284398175</v>
       </c>
     </row>
     <row r="138">
@@ -5635,10 +5445,10 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0.974626370650149</v>
+        <v>0.710789728957317</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0431646677378439</v>
+        <v>0.033936837188939</v>
       </c>
       <c r="I138" t="e">
         <v>#NUM!</v>
@@ -5647,10 +5457,10 @@
         <v>1</v>
       </c>
       <c r="K138" t="n">
-        <v>-0.580311684830005</v>
+        <v>-7.15000117765233</v>
       </c>
       <c r="L138" t="n">
-        <v>1</v>
+        <v>0.000000000148388936890764</v>
       </c>
     </row>
     <row r="139">
@@ -5673,10 +5483,10 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0.81506590211627</v>
+        <v>0.561022908092846</v>
       </c>
       <c r="H139" t="n">
-        <v>0.0510719248282126</v>
+        <v>0.0404083070240281</v>
       </c>
       <c r="I139" t="e">
         <v>#NUM!</v>
@@ -5685,10 +5495,10 @@
         <v>1</v>
       </c>
       <c r="K139" t="n">
-        <v>-3.26343323201989</v>
+        <v>-8.02477610414272</v>
       </c>
       <c r="L139" t="n">
-        <v>0.209135121707047</v>
+        <v>0.000000000000173926286845703</v>
       </c>
     </row>
     <row r="140">
@@ -5711,10 +5521,10 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>0.892926950272241</v>
+        <v>1.20418530094499</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0723442618179292</v>
+        <v>0.103676181515013</v>
       </c>
       <c r="I140" t="e">
         <v>#NUM!</v>
@@ -5723,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="K140" t="n">
-        <v>-1.39782236578898</v>
+        <v>2.15808034772286</v>
       </c>
       <c r="L140" t="n">
         <v>1</v>
@@ -5749,10 +5559,10 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>1.00348652803536</v>
+        <v>1.0846822530453</v>
       </c>
       <c r="H141" t="n">
-        <v>0.080685622200669</v>
+        <v>0.0930374031233262</v>
       </c>
       <c r="I141" t="e">
         <v>#NUM!</v>
@@ -5761,7 +5571,7 @@
         <v>1</v>
       </c>
       <c r="K141" t="n">
-        <v>0.0432865091403934</v>
+        <v>0.947690506302063</v>
       </c>
       <c r="L141" t="n">
         <v>1</v>
@@ -5787,10 +5597,10 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>1.37439887996928</v>
+        <v>1.34058263932765</v>
       </c>
       <c r="H142" t="n">
-        <v>0.109329654227309</v>
+        <v>0.112152116057507</v>
       </c>
       <c r="I142" t="e">
         <v>#NUM!</v>
@@ -5799,10 +5609,10 @@
         <v>1</v>
       </c>
       <c r="K142" t="n">
-        <v>3.99783083416081</v>
+        <v>3.50355020775967</v>
       </c>
       <c r="L142" t="n">
-        <v>0.0121458657578313</v>
+        <v>0.0785061170495826</v>
       </c>
     </row>
     <row r="143">
@@ -5825,10 +5635,10 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0.78408287159926</v>
+        <v>0.810625877350305</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0172448821361243</v>
+        <v>0.0287921797777829</v>
       </c>
       <c r="I143" t="e">
         <v>#NUM!</v>
@@ -5837,10 +5647,10 @@
         <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>-11.0595570196659</v>
+        <v>-5.9109731568744</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0000000000000000000000000374429930713682</v>
+        <v>0.000000581558102405414</v>
       </c>
     </row>
     <row r="144">
@@ -5863,10 +5673,10 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>1.19624492428741</v>
+        <v>0.960401842442536</v>
       </c>
       <c r="H144" t="n">
-        <v>0.0322722964542114</v>
+        <v>0.0391570465150448</v>
       </c>
       <c r="I144" t="e">
         <v>#NUM!</v>
@@ -5875,10 +5685,10 @@
         <v>1</v>
       </c>
       <c r="K144" t="n">
-        <v>6.64198294285518</v>
+        <v>-0.99097341779681</v>
       </c>
       <c r="L144" t="n">
-        <v>0.00000000588032497938271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -5901,10 +5711,10 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>1.3443604377571</v>
+        <v>0.865091803954026</v>
       </c>
       <c r="H145" t="n">
-        <v>0.0338024251075635</v>
+        <v>0.035500771917414</v>
       </c>
       <c r="I145" t="e">
         <v>#NUM!</v>
@@ -5913,10 +5723,10 @@
         <v>1</v>
       </c>
       <c r="K145" t="n">
-        <v>11.7690069192466</v>
+        <v>-3.53143864671225</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0000000000000000000000000000107130241040986</v>
+        <v>0.0706752798740108</v>
       </c>
     </row>
     <row r="146">
@@ -5939,10 +5749,10 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>1.27982202440999</v>
+        <v>1.33807997419328</v>
       </c>
       <c r="H146" t="n">
-        <v>0.102819788846774</v>
+        <v>0.115380077495818</v>
       </c>
       <c r="I146" t="e">
         <v>#NUM!</v>
@@ -5951,10 +5761,10 @@
         <v>1</v>
       </c>
       <c r="K146" t="n">
-        <v>3.07099445553834</v>
+        <v>3.37750423094279</v>
       </c>
       <c r="L146" t="n">
-        <v>0.405359513903862</v>
+        <v>0.125081075542161</v>
       </c>
     </row>
     <row r="147">
@@ -5977,10 +5787,10 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>1.21800760129285</v>
+        <v>1.1751118871131</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0985332106990121</v>
+        <v>0.101476408049823</v>
       </c>
       <c r="I147" t="e">
         <v>#NUM!</v>
@@ -5989,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="K147" t="n">
-        <v>2.43786927125524</v>
+        <v>1.86861176244891</v>
       </c>
       <c r="L147" t="n">
         <v>1</v>
@@ -6015,10 +5825,10 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0.746441579097312</v>
+        <v>1.25383485092288</v>
       </c>
       <c r="H148" t="n">
-        <v>0.060591673951298</v>
+        <v>0.108514102069608</v>
       </c>
       <c r="I148" t="e">
         <v>#NUM!</v>
@@ -6027,10 +5837,10 @@
         <v>1</v>
       </c>
       <c r="K148" t="n">
-        <v>-3.60260432088203</v>
+        <v>2.61372377724428</v>
       </c>
       <c r="L148" t="n">
-        <v>0.0598585310269506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -6053,10 +5863,10 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>0.951700766248619</v>
+        <v>0.878207513584211</v>
       </c>
       <c r="H149" t="n">
-        <v>0.0220788073890191</v>
+        <v>0.0322318497051177</v>
       </c>
       <c r="I149" t="e">
         <v>#NUM!</v>
@@ -6065,10 +5875,10 @@
         <v>1</v>
       </c>
       <c r="K149" t="n">
-        <v>-2.13388245917884</v>
+        <v>-3.53857715249935</v>
       </c>
       <c r="L149" t="n">
-        <v>1</v>
+        <v>0.0687915389195351</v>
       </c>
     </row>
     <row r="150">
@@ -6091,10 +5901,10 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>1.71456422076287</v>
+        <v>1.06718996780827</v>
       </c>
       <c r="H150" t="n">
-        <v>0.042942085663865</v>
+        <v>0.0441303781884761</v>
       </c>
       <c r="I150" t="e">
         <v>#NUM!</v>
@@ -6103,10 +5913,10 @@
         <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>21.5271948271914</v>
+        <v>1.57257414572431</v>
       </c>
       <c r="L150" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000016457893105848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -6129,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>1.63175208268249</v>
+        <v>0.937214248150919</v>
       </c>
       <c r="H151" t="n">
-        <v>0.043614357783994</v>
+        <v>0.0395479444300578</v>
       </c>
       <c r="I151" t="e">
         <v>#NUM!</v>
@@ -6141,10 +5951,10 @@
         <v>1</v>
       </c>
       <c r="K151" t="n">
-        <v>18.3195287362555</v>
+        <v>-1.53666974949839</v>
       </c>
       <c r="L151" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000109841409273056</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -6167,10 +5977,10 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>1.04986642701266</v>
+        <v>1.19210698228678</v>
       </c>
       <c r="H152" t="n">
-        <v>0.084164643644039</v>
+        <v>0.0961544218637153</v>
       </c>
       <c r="I152" t="e">
         <v>#NUM!</v>
@@ -6179,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="K152" t="n">
-        <v>0.607019629942025</v>
+        <v>2.17857686025984</v>
       </c>
       <c r="L152" t="n">
         <v>1</v>
@@ -6205,10 +6015,10 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0.718405862280148</v>
+        <v>1.07513254181055</v>
       </c>
       <c r="H153" t="n">
-        <v>0.0579633811932971</v>
+        <v>0.091960344664442</v>
       </c>
       <c r="I153" t="e">
         <v>#NUM!</v>
@@ -6217,10 +6027,10 @@
         <v>1</v>
       </c>
       <c r="K153" t="n">
-        <v>-4.09899516290915</v>
+        <v>0.846961230678254</v>
       </c>
       <c r="L153" t="n">
-        <v>0.00788400642777114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -6243,10 +6053,10 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0.895810324796549</v>
+        <v>1.18376940628132</v>
       </c>
       <c r="H154" t="n">
-        <v>0.0712942279839939</v>
+        <v>0.0994326566995828</v>
       </c>
       <c r="I154" t="e">
         <v>#NUM!</v>
@@ -6255,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="K154" t="n">
-        <v>-1.38248142519046</v>
+        <v>2.00845834352337</v>
       </c>
       <c r="L154" t="n">
         <v>1</v>
@@ -6281,10 +6091,10 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>1.42239825330975</v>
+        <v>1.40110951701285</v>
       </c>
       <c r="H155" t="n">
-        <v>0.11330995674968</v>
+        <v>0.11687700886326</v>
       </c>
       <c r="I155" t="e">
         <v>#NUM!</v>
@@ -6293,10 +6103,10 @@
         <v>1</v>
       </c>
       <c r="K155" t="n">
-        <v>4.42303583425873</v>
+        <v>4.04309122971353</v>
       </c>
       <c r="L155" t="n">
-        <v>0.00184914824052766</v>
+        <v>0.00902043527798163</v>
       </c>
     </row>
     <row r="156">
@@ -6319,10 +6129,10 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0.561332629520374</v>
+        <v>0.803489001065684</v>
       </c>
       <c r="H156" t="n">
-        <v>0.0128961364043858</v>
+        <v>0.0241326874453695</v>
       </c>
       <c r="I156" t="e">
         <v>#NUM!</v>
@@ -6331,10 +6141,10 @@
         <v>1</v>
       </c>
       <c r="K156" t="n">
-        <v>-25.13441363603</v>
+        <v>-7.2845923730245</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000397570209778659</v>
+        <v>0.0000000000551721830546356</v>
       </c>
     </row>
     <row r="157">
@@ -6357,10 +6167,10 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>0.699949139576283</v>
+        <v>0.884677619508512</v>
       </c>
       <c r="H157" t="n">
-        <v>0.0131433563219749</v>
+        <v>0.0282899799976835</v>
       </c>
       <c r="I157" t="e">
         <v>#NUM!</v>
@@ -6369,10 +6179,10 @@
         <v>1</v>
       </c>
       <c r="K157" t="n">
-        <v>-18.9985854889145</v>
+        <v>-3.83179109287</v>
       </c>
       <c r="L157" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000003328855632819</v>
+        <v>0.0217535496288825</v>
       </c>
     </row>
     <row r="158">
@@ -6395,10 +6205,10 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0.735471867208133</v>
+        <v>1.00736739987329</v>
       </c>
       <c r="H158" t="n">
-        <v>0.0150640872727516</v>
+        <v>0.0262976680906076</v>
       </c>
       <c r="I158" t="e">
         <v>#NUM!</v>
@@ -6407,10 +6217,10 @@
         <v>1</v>
       </c>
       <c r="K158" t="n">
-        <v>-15.0004823476045</v>
+        <v>0.28118359141284</v>
       </c>
       <c r="L158" t="n">
-        <v>0.00000000000000000000000000000000000000000000000138486638769321</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -6433,10 +6243,10 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0.962440842522374</v>
+        <v>0.85747540118159</v>
       </c>
       <c r="H159" t="n">
-        <v>0.0251237112320974</v>
+        <v>0.0337603548429026</v>
       </c>
       <c r="I159" t="e">
         <v>#NUM!</v>
@@ -6445,10 +6255,10 @@
         <v>1</v>
       </c>
       <c r="K159" t="n">
-        <v>-1.46653540108504</v>
+        <v>-3.90540348589935</v>
       </c>
       <c r="L159" t="n">
-        <v>1</v>
+        <v>0.0160856788288801</v>
       </c>
     </row>
     <row r="160">
@@ -6471,10 +6281,10 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>1.20010775107125</v>
+        <v>0.94411908028399</v>
       </c>
       <c r="H160" t="n">
-        <v>0.0269901599223456</v>
+        <v>0.0350716323985284</v>
       </c>
       <c r="I160" t="e">
         <v>#NUM!</v>
@@ -6483,10 +6293,10 @@
         <v>1</v>
       </c>
       <c r="K160" t="n">
-        <v>8.11085484615047</v>
+        <v>-1.5479649363814</v>
       </c>
       <c r="L160" t="n">
-        <v>0.00000000000009550325721994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -6509,10 +6319,10 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>1.90557210790681</v>
+        <v>1.11745938149795</v>
       </c>
       <c r="H161" t="n">
-        <v>0.0433884136203854</v>
+        <v>0.0299219085040925</v>
       </c>
       <c r="I161" t="e">
         <v>#NUM!</v>
@@ -6521,10 +6331,10 @@
         <v>1</v>
       </c>
       <c r="K161" t="n">
-        <v>28.3181391269779</v>
+        <v>4.14754519528314</v>
       </c>
       <c r="L161" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000392666862081898</v>
+        <v>0.0057466113754475</v>
       </c>
     </row>
     <row r="162">
@@ -6547,10 +6357,10 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0.888259342500248</v>
+        <v>1.02398382416685</v>
       </c>
       <c r="H162" t="n">
-        <v>0.0146308104046133</v>
+        <v>0.0330575547406037</v>
       </c>
       <c r="I162" t="e">
         <v>#NUM!</v>
@@ -6559,10 +6369,10 @@
         <v>1</v>
       </c>
       <c r="K162" t="n">
-        <v>-7.19380555828667</v>
+        <v>0.734148793115628</v>
       </c>
       <c r="L162" t="n">
-        <v>0.000000000119718833202749</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -6585,10 +6395,10 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0.811248474776923</v>
+        <v>0.998048637131858</v>
       </c>
       <c r="H163" t="n">
-        <v>0.0137090430939221</v>
+        <v>0.0314149721032176</v>
       </c>
       <c r="I163" t="e">
         <v>#NUM!</v>
@@ -6597,10 +6407,10 @@
         <v>1</v>
       </c>
       <c r="K163" t="n">
-        <v>-12.3785210724618</v>
+        <v>-0.0620550517632186</v>
       </c>
       <c r="L163" t="n">
-        <v>0.00000000000000000000000000000000649000297483388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -6623,10 +6433,10 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>1.3162437048482</v>
+        <v>1.15569156440836</v>
       </c>
       <c r="H164" t="n">
-        <v>0.01728352356743</v>
+        <v>0.0323622112983583</v>
       </c>
       <c r="I164" t="e">
         <v>#NUM!</v>
@@ -6635,10 +6445,10 @@
         <v>1</v>
       </c>
       <c r="K164" t="n">
-        <v>20.9262931069065</v>
+        <v>5.1673639302234</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000586303777474808</v>
+        <v>0.0000405985966109975</v>
       </c>
     </row>
     <row r="165">
@@ -6661,10 +6471,10 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>1.1855450830124</v>
+        <v>1.10663634735032</v>
       </c>
       <c r="H165" t="n">
-        <v>0.0227540663091416</v>
+        <v>0.0348930909661068</v>
       </c>
       <c r="I165" t="e">
         <v>#NUM!</v>
@@ -6673,10 +6483,10 @@
         <v>1</v>
       </c>
       <c r="K165" t="n">
-        <v>8.86799385241813</v>
+        <v>3.21353116154003</v>
       </c>
       <c r="L165" t="n">
-        <v>0.000000000000000141503336897641</v>
+        <v>0.22420420447675</v>
       </c>
     </row>
     <row r="166">
@@ -6699,10 +6509,10 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0.655620646328415</v>
+        <v>0.871236867436698</v>
       </c>
       <c r="H166" t="n">
-        <v>0.00893346137856436</v>
+        <v>0.0259442014517416</v>
       </c>
       <c r="I166" t="e">
         <v>#NUM!</v>
@@ -6711,10 +6521,10 @@
         <v>1</v>
       </c>
       <c r="K166" t="n">
-        <v>-30.9829845657499</v>
+        <v>-4.62887637071628</v>
       </c>
       <c r="L166" t="n">
-        <v>1.73635582901685e-208</v>
+        <v>0.000628690334838267</v>
       </c>
     </row>
     <row r="167">
@@ -6737,10 +6547,10 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0.598779234754897</v>
+        <v>0.849170414260901</v>
       </c>
       <c r="H167" t="n">
-        <v>0.00855510053542469</v>
+        <v>0.0258006076897901</v>
       </c>
       <c r="I167" t="e">
         <v>#NUM!</v>
@@ -6749,10 +6559,10 @@
         <v>1</v>
       </c>
       <c r="K167" t="n">
-        <v>-35.8956972314201</v>
+        <v>-5.38109214839364</v>
       </c>
       <c r="L167" t="n">
-        <v>6.77423783268473e-280</v>
+        <v>0.0000126600331729853</v>
       </c>
     </row>
     <row r="168">
@@ -6775,10 +6585,10 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0.69294686297194</v>
+        <v>0.74759476044266</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0282602837327707</v>
+        <v>0.0327009306230496</v>
       </c>
       <c r="I168" t="e">
         <v>#NUM!</v>
@@ -6787,10 +6597,10 @@
         <v>1</v>
       </c>
       <c r="K168" t="n">
-        <v>-8.99404512703506</v>
+        <v>-6.6502996868198</v>
       </c>
       <c r="L168" t="n">
-        <v>0.000000000000000045275968057243</v>
+        <v>0.00000000500169586826098</v>
       </c>
     </row>
     <row r="169">
@@ -6813,10 +6623,10 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0.579501414075325</v>
+        <v>0.590072942097482</v>
       </c>
       <c r="H169" t="n">
-        <v>0.0349419546726259</v>
+        <v>0.0405178568333554</v>
       </c>
       <c r="I169" t="e">
         <v>#NUM!</v>
@@ -6825,10 +6635,10 @@
         <v>1</v>
       </c>
       <c r="K169" t="n">
-        <v>-9.04839305583286</v>
+        <v>-7.68226362863857</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0000000000000000275666591409767</v>
+        <v>0.00000000000267276015144449</v>
       </c>
     </row>
     <row r="170">
@@ -6851,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0.902673508926765</v>
+        <v>1.00093570340417</v>
       </c>
       <c r="H170" t="n">
-        <v>0.0434998828953704</v>
+        <v>0.0558415749592468</v>
       </c>
       <c r="I170" t="e">
         <v>#NUM!</v>
@@ -6863,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="K170" t="n">
-        <v>-2.1248027420259</v>
+        <v>0.0167642305719894</v>
       </c>
       <c r="L170" t="n">
         <v>1</v>
@@ -6889,10 +6699,10 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0.846873767306193</v>
+        <v>0.654272889134503</v>
       </c>
       <c r="H171" t="n">
-        <v>0.0514258334116458</v>
+        <v>0.0449599691263872</v>
       </c>
       <c r="I171" t="e">
         <v>#NUM!</v>
@@ -6901,10 +6711,10 @@
         <v>1</v>
       </c>
       <c r="K171" t="n">
-        <v>-2.73701922475792</v>
+        <v>-6.17355140006409</v>
       </c>
       <c r="L171" t="n">
-        <v>1</v>
+        <v>0.000000114181536338165</v>
       </c>
     </row>
     <row r="172">
@@ -6927,10 +6737,10 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>0.51146129112938</v>
+        <v>0.636076568621676</v>
       </c>
       <c r="H172" t="n">
-        <v>0.0203511251859193</v>
+        <v>0.0266117743841815</v>
       </c>
       <c r="I172" t="e">
         <v>#NUM!</v>
@@ -6939,10 +6749,10 @@
         <v>1</v>
       </c>
       <c r="K172" t="n">
-        <v>-16.8504831462589</v>
+        <v>-10.814166143418</v>
       </c>
       <c r="L172" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000197716011321146</v>
+        <v>0.00000000000000000000000050438640611639</v>
       </c>
     </row>
     <row r="173">
@@ -6965,10 +6775,10 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>0.427727661805244</v>
+        <v>0.502052170648741</v>
       </c>
       <c r="H173" t="n">
-        <v>0.0255093144692648</v>
+        <v>0.0342313972369933</v>
       </c>
       <c r="I173" t="e">
         <v>#NUM!</v>
@@ -6977,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="K173" t="n">
-        <v>-14.2401187901313</v>
+        <v>-10.1059173214845</v>
       </c>
       <c r="L173" t="n">
-        <v>0.0000000000000000000000000000000000000000000981144855943899</v>
+        <v>0.00000000000000000000088931208145823</v>
       </c>
     </row>
     <row r="174">
@@ -7003,10 +6813,10 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0.850514815311336</v>
+        <v>1.01013190832507</v>
       </c>
       <c r="H174" t="n">
-        <v>0.0186885728687943</v>
+        <v>0.0361713478326962</v>
       </c>
       <c r="I174" t="e">
         <v>#NUM!</v>
@@ -7015,10 +6825,10 @@
         <v>1</v>
       </c>
       <c r="K174" t="n">
-        <v>-7.36866250250941</v>
+        <v>0.281522924684504</v>
       </c>
       <c r="L174" t="n">
-        <v>0.0000000000327461885056047</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -7041,10 +6851,10 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0.955823047785932</v>
+        <v>0.909886670544102</v>
       </c>
       <c r="H175" t="n">
-        <v>0.0200761679291892</v>
+        <v>0.0317213013451504</v>
       </c>
       <c r="I175" t="e">
         <v>#NUM!</v>
@@ -7053,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="K175" t="n">
-        <v>-2.15113040671016</v>
+        <v>-2.70875874872254</v>
       </c>
       <c r="L175" t="n">
         <v>1</v>
@@ -7079,10 +6889,10 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>1.30911785023936</v>
+        <v>1.12454893667014</v>
       </c>
       <c r="H176" t="n">
-        <v>0.0221935285248405</v>
+        <v>0.0333675798759296</v>
       </c>
       <c r="I176" t="e">
         <v>#NUM!</v>
@@ -7091,10 +6901,10 @@
         <v>1</v>
       </c>
       <c r="K176" t="n">
-        <v>15.8882122914535</v>
+        <v>3.9559900689248</v>
       </c>
       <c r="L176" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000145307563562399</v>
+        <v>0.0130333339620692</v>
       </c>
     </row>
     <row r="177">
@@ -7117,10 +6927,10 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>1.39682396918421</v>
+        <v>1.00888235716376</v>
       </c>
       <c r="H177" t="n">
-        <v>0.0319477524002346</v>
+        <v>0.0350697621126689</v>
       </c>
       <c r="I177" t="e">
         <v>#NUM!</v>
@@ -7129,10 +6939,10 @@
         <v>1</v>
       </c>
       <c r="K177" t="n">
-        <v>14.6119843957159</v>
+        <v>0.25439833289971</v>
       </c>
       <c r="L177" t="n">
-        <v>0.000000000000000000000000000000000000000000000447555766013589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -7155,10 +6965,10 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0.627761562694912</v>
+        <v>0.859451232272192</v>
       </c>
       <c r="H178" t="n">
-        <v>0.012609519190341</v>
+        <v>0.0289488927733525</v>
       </c>
       <c r="I178" t="e">
         <v>#NUM!</v>
@@ -7167,10 +6977,10 @@
         <v>1</v>
       </c>
       <c r="K178" t="n">
-        <v>-23.1795164941484</v>
+        <v>-4.49666631681078</v>
       </c>
       <c r="L178" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000139234512515539</v>
+        <v>0.00118036492761575</v>
       </c>
     </row>
     <row r="179">
@@ -7193,10 +7003,10 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0.705489145322255</v>
+        <v>0.774159507072528</v>
       </c>
       <c r="H179" t="n">
-        <v>0.0133963757224626</v>
+        <v>0.0262565346139984</v>
       </c>
       <c r="I179" t="e">
         <v>#NUM!</v>
@@ -7205,10 +7015,10 @@
         <v>1</v>
       </c>
       <c r="K179" t="n">
-        <v>-18.3721101311156</v>
+        <v>-7.54735147820964</v>
       </c>
       <c r="L179" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000417433214725979</v>
+        <v>0.00000000000759579675428328</v>
       </c>
     </row>
     <row r="180">
@@ -7231,10 +7041,10 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>1.21903319458616</v>
+        <v>1.12244957380124</v>
       </c>
       <c r="H180" t="n">
-        <v>0.0257349359823452</v>
+        <v>0.0405644075042128</v>
       </c>
       <c r="I180" t="e">
         <v>#NUM!</v>
@@ -7243,10 +7053,10 @@
         <v>1</v>
       </c>
       <c r="K180" t="n">
-        <v>9.38177485711713</v>
+        <v>3.19634855050095</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0000000000000000012325562831924</v>
+        <v>0.237995869183141</v>
       </c>
     </row>
     <row r="181">
@@ -7269,10 +7079,10 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>1.16015482537015</v>
+        <v>0.985743649331641</v>
       </c>
       <c r="H181" t="n">
-        <v>0.0262744643660118</v>
+        <v>0.0357554268988032</v>
       </c>
       <c r="I181" t="e">
         <v>#NUM!</v>
@@ -7281,10 +7091,10 @@
         <v>1</v>
       </c>
       <c r="K181" t="n">
-        <v>6.55941138972703</v>
+        <v>-0.395862774919671</v>
       </c>
       <c r="L181" t="n">
-        <v>0.0000000102639105720702</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -7307,10 +7117,10 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0.710987188361928</v>
+        <v>1.05178047738441</v>
       </c>
       <c r="H182" t="n">
-        <v>0.0174014846855121</v>
+        <v>0.0389765272109259</v>
       </c>
       <c r="I182" t="e">
         <v>#NUM!</v>
@@ -7319,10 +7129,10 @@
         <v>1</v>
       </c>
       <c r="K182" t="n">
-        <v>-13.9366468920169</v>
+        <v>1.3623206597552</v>
       </c>
       <c r="L182" t="n">
-        <v>0.00000000000000000000000000000000000000000720761137942469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -7345,10 +7155,10 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>1.69543104426656</v>
+        <v>1.09299257664937</v>
       </c>
       <c r="H183" t="n">
-        <v>0.0413428561163423</v>
+        <v>0.0394234257626987</v>
       </c>
       <c r="I183" t="e">
         <v>#NUM!</v>
@@ -7357,10 +7167,10 @@
         <v>1</v>
       </c>
       <c r="K183" t="n">
-        <v>21.6501926446984</v>
+        <v>2.46524144752499</v>
       </c>
       <c r="L183" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000115000906310302</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -7383,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0.899763495513298</v>
+        <v>0.955014549502201</v>
       </c>
       <c r="H184" t="n">
-        <v>0.0171911543543498</v>
+        <v>0.0328607193008594</v>
       </c>
       <c r="I184" t="e">
         <v>#NUM!</v>
@@ -7395,10 +7205,10 @@
         <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>-5.52819300599503</v>
+        <v>-1.33770904920656</v>
       </c>
       <c r="L184" t="n">
-        <v>0.00000614737382996112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -7421,10 +7231,10 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0.856305608122542</v>
+        <v>0.838700952955074</v>
       </c>
       <c r="H185" t="n">
-        <v>0.0178036729605105</v>
+        <v>0.0296258654214658</v>
       </c>
       <c r="I185" t="e">
         <v>#NUM!</v>
@@ -7433,10 +7243,10 @@
         <v>1</v>
       </c>
       <c r="K185" t="n">
-        <v>-7.46120937546311</v>
+        <v>-4.97971593062691</v>
       </c>
       <c r="L185" t="n">
-        <v>0.0000000000162890588514111</v>
+        <v>0.000108888816228339</v>
       </c>
     </row>
     <row r="186">
@@ -7459,10 +7269,10 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0.684283108589668</v>
+        <v>0.901875886800158</v>
       </c>
       <c r="H186" t="n">
-        <v>0.0132468263948741</v>
+        <v>0.0310543203523644</v>
       </c>
       <c r="I186" t="e">
         <v>#NUM!</v>
@@ -7471,10 +7281,10 @@
         <v>1</v>
       </c>
       <c r="K186" t="n">
-        <v>-19.5975808964049</v>
+        <v>-2.9993980553912</v>
       </c>
       <c r="L186" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000030808755235041</v>
+        <v>0.462578313768581</v>
       </c>
     </row>
     <row r="187">
@@ -7497,10 +7307,10 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0.853261235665506</v>
+        <v>0.993006016968821</v>
       </c>
       <c r="H187" t="n">
-        <v>0.0116400756734475</v>
+        <v>0.0299199474514365</v>
       </c>
       <c r="I187" t="e">
         <v>#NUM!</v>
@@ -7509,10 +7319,10 @@
         <v>1</v>
       </c>
       <c r="K187" t="n">
-        <v>-11.6325376614304</v>
+        <v>-0.232937170880936</v>
       </c>
       <c r="L187" t="n">
-        <v>0.0000000000000000000000000000535039153422451</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -7535,10 +7345,10 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>1.35483735522157</v>
+        <v>1.1753219617296</v>
       </c>
       <c r="H188" t="n">
-        <v>0.0188796907848994</v>
+        <v>0.0340079536192888</v>
       </c>
       <c r="I188" t="e">
         <v>#NUM!</v>
@@ -7547,10 +7357,10 @@
         <v>1</v>
       </c>
       <c r="K188" t="n">
-        <v>21.7926728022262</v>
+        <v>5.5829293217284</v>
       </c>
       <c r="L188" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000517342485808095</v>
+        <v>0.00000404416495471969</v>
       </c>
     </row>
     <row r="189">
@@ -7573,10 +7383,10 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>1.24694183584936</v>
+        <v>1.10104509002008</v>
       </c>
       <c r="H189" t="n">
-        <v>0.0205889934197193</v>
+        <v>0.0333222823478259</v>
       </c>
       <c r="I189" t="e">
         <v>#NUM!</v>
@@ -7585,10 +7395,10 @@
         <v>1</v>
       </c>
       <c r="K189" t="n">
-        <v>13.3660059904232</v>
+        <v>3.18064623304086</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0000000000000000000000000000000000000181515757994509</v>
+        <v>0.251279292282097</v>
       </c>
     </row>
     <row r="190">
@@ -7611,10 +7421,10 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0.505066608882923</v>
+        <v>0.767343686382718</v>
       </c>
       <c r="H190" t="n">
-        <v>0.00861836233126458</v>
+        <v>0.0245257241893475</v>
       </c>
       <c r="I190" t="e">
         <v>#NUM!</v>
@@ -7623,10 +7433,10 @@
         <v>1</v>
       </c>
       <c r="K190" t="n">
-        <v>-40.0300300155438</v>
+        <v>-8.28551795464037</v>
       </c>
       <c r="L190" t="n">
-        <v>0</v>
+        <v>0.0000000000000201089446387088</v>
       </c>
     </row>
     <row r="191">
@@ -7649,10 +7459,10 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0.629788684506682</v>
+        <v>0.844879998249601</v>
       </c>
       <c r="H191" t="n">
-        <v>0.0067670474659077</v>
+        <v>0.0245185548850457</v>
       </c>
       <c r="I191" t="e">
         <v>#NUM!</v>
@@ -7661,10 +7471,10 @@
         <v>1</v>
       </c>
       <c r="K191" t="n">
-        <v>-43.0314676838433</v>
+        <v>-5.80839874074293</v>
       </c>
       <c r="L191" t="n">
-        <v>0</v>
+        <v>0.0000010785509954641</v>
       </c>
     </row>
   </sheetData>
